--- a/changes/9mm-muzzles.xlsx
+++ b/changes/9mm-muzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D0932C-5925-4224-BF60-6F7BEC289B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE4011-3404-41F9-BB28-707FDE729EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>new</t>
   </si>
@@ -174,6 +174,36 @@
   </si>
   <si>
     <t>Wasatch Arms Comp Weight 10mm Compensator for Glock 20</t>
+  </si>
+  <si>
+    <t>rugged_suppressors_obsidian_9_9x19_piston</t>
+  </si>
+  <si>
+    <t>Rugged Suppressors Obsidian9 9x19 Piston</t>
+  </si>
+  <si>
+    <t>rugged_suppressors_obsidian_9_3lug_piston</t>
+  </si>
+  <si>
+    <t>Rugged Suppressors Obsidian9 3-Lug Piston</t>
+  </si>
+  <si>
+    <t>rugged_suppressors_obsidian_9_body</t>
+  </si>
+  <si>
+    <t>Rugged Suppressors Obsidian9 9x19 Body</t>
+  </si>
+  <si>
+    <t>rugged_suppressors_obsidian_9_extension</t>
+  </si>
+  <si>
+    <t>Rugged Suppressors Obsidian9 9x19 Extension</t>
+  </si>
+  <si>
+    <t>rugged_suppressors_obsidian_9_cap</t>
+  </si>
+  <si>
+    <t>Rugged Suppressors Obsidian9 9x19 Cap</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1048,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1186,7 @@
         <v>100</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N18" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*3+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N24" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*3+I4*10+J4/300</f>
         <v>2.8</v>
       </c>
     </row>
@@ -1662,23 +1692,79 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="1"/>
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.03</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="H20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1">
+        <v>300</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1694,29 +1780,108 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-11</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J22" s="1">
+        <v>70</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333339</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N23" s="1"/>
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-4</v>
+      </c>
+      <c r="H23">
+        <v>-0.05</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="J23" s="1">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3166666666666667</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N24" s="1"/>
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N25" s="1"/>

--- a/changes/9mm-muzzles.xlsx
+++ b/changes/9mm-muzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE4011-3404-41F9-BB28-707FDE729EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057F9A6-871C-4BB0-B530-C7AE7D6E78EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,12 +1048,12 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1802,14 +1802,14 @@
         <v>-9</v>
       </c>
       <c r="F22" s="1">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
         <v>-0.1</v>
       </c>
       <c r="I22" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J22" s="1">
         <v>70</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>9.3333333333333339</v>
+        <v>8.9333333333333318</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1832,32 +1832,32 @@
         <v>54</v>
       </c>
       <c r="C23" s="1">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="F23" s="1">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="H23">
-        <v>-0.05</v>
+        <v>-0.15</v>
       </c>
       <c r="I23" s="1">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="M23">
         <v>1000</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>1.3166666666666667</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/9mm-muzzles.xlsx
+++ b/changes/9mm-muzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057F9A6-871C-4BB0-B530-C7AE7D6E78EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E278E3-A227-4CB9-97B3-AA275AA71D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1802,7 +1802,7 @@
         <v>-9</v>
       </c>
       <c r="F22" s="1">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>8.9333333333333318</v>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1841,13 +1841,13 @@
         <v>-12</v>
       </c>
       <c r="F23" s="1">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="H23">
         <v>-0.15</v>
       </c>
       <c r="I23" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="J23" s="1">
         <v>120</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>10.65</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/9mm-muzzles.xlsx
+++ b/changes/9mm-muzzles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E278E3-A227-4CB9-97B3-AA275AA71D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C1AFA-F22C-473F-BAAC-18BA1EBD00D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -1047,16 +1047,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1074,7 +1074,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>-1.6466666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>4.9333333333333327</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>7.7666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>7.8666666666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>6.1666666666666652</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>6.1499999999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>5.8166666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1832,35 +1832,35 @@
         <v>54</v>
       </c>
       <c r="C23" s="1">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F23" s="1">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="H23">
-        <v>-0.15</v>
+        <v>-0.05</v>
       </c>
       <c r="I23" s="1">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="J23" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M23">
         <v>1000</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.11666666666666661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1883,46 +1883,46 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N38" s="1"/>
     </row>
   </sheetData>
